--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_15-30.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_15-30.xlsx
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>6:0</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
     <t>KETOLAC 10MG 20 TAB</t>
@@ -1118,17 +1121,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1136,7 +1139,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1144,17 +1147,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1176,7 +1179,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>36.5</v>
+        <v>92</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1196,13 +1199,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>35</v>
+        <v>36.5</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1214,7 +1217,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1222,13 +1225,13 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1248,17 +1251,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1266,7 +1269,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1274,17 +1277,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1300,17 +1303,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1318,7 +1321,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1326,17 +1329,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1344,7 +1347,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1352,17 +1355,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1378,7 +1381,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -1396,7 +1399,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1404,17 +1407,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1430,13 +1433,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1462,11 +1465,11 @@
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1482,17 +1485,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1508,17 +1511,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1526,7 +1529,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1534,17 +1537,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1552,7 +1555,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1560,7 +1563,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -1578,7 +1581,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1586,13 +1589,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1612,13 +1615,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1630,7 +1633,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1638,17 +1641,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>11.67</v>
+        <v>20</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1656,7 +1659,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1664,17 +1667,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>8</v>
+        <v>11.67</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1682,7 +1685,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1690,17 +1693,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1708,7 +1711,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1716,17 +1719,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1734,7 +1737,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1742,17 +1745,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>133.65000000000001</v>
+        <v>20</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1768,17 +1771,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>15</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1786,7 +1789,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1794,13 +1797,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1812,7 +1815,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1820,13 +1823,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1846,13 +1849,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1872,51 +1875,77 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="45" ht="26.25" customHeight="1">
-      <c r="K45" s="10">
-        <v>1380.3199999999999</v>
-      </c>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="11">
+    <row r="45" ht="25.5" customHeight="1">
+      <c r="A45" s="6">
+        <v>42</v>
+      </c>
+      <c t="s" r="B45" s="7">
+        <v>76</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c t="s" r="H45" s="8">
         <v>77</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c t="s" r="F46" s="12">
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9">
+        <v>40</v>
+      </c>
+      <c r="M45" s="9"/>
+      <c t="s" r="N45" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="K46" s="10">
+        <v>1432.3199999999999</v>
+      </c>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="11">
         <v>78</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="13"/>
-      <c t="s" r="I46" s="14">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c t="s" r="F47" s="12">
         <v>79</v>
       </c>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="13"/>
+      <c t="s" r="I47" s="14">
+        <v>80</v>
+      </c>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="134">
+  <mergeCells count="137">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2047,10 +2076,13 @@
     <mergeCell ref="B44:G44"/>
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="I46:N46"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="I47:N47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
